--- a/assignment1.xlsx
+++ b/assignment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,14 +133,45 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -291,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +331,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEDE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -494,16 +543,136 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -609,156 +778,171 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,6 +996,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00DEEDE6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1112,117 +1301,123 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="57.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="68.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="61" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="70.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="85" customWidth="1"/>
+    <col min="4" max="4" width="78.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" ht="18.75" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" ht="18.75" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" ht="18.75" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" ht="18.75" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="6" ht="18.75" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="7" ht="19.5" spans="1:4">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="8" ht="21" spans="1:4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
